--- a/doc/zeitplanYatzy.xlsx
+++ b/doc/zeitplanYatzy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassandra Corrodi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Yahtzi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424EFE9E-4931-4728-929D-4EB25625412C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067D520-7A31-436B-AD56-CC8138C81B10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,6 +1162,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1204,8 +1246,71 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="21" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,111 +1328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1767,58 +1767,58 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:65" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="62"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="76"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="60" t="s">
+      <c r="T2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="64"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="78"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="2:65" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="58" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3"/>
@@ -1842,11 +1842,11 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="2:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="11">
         <v>2</v>
       </c>
@@ -2032,10 +2032,10 @@
       <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="66">
         <v>5</v>
       </c>
-      <c r="E5" s="67"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
@@ -2106,10 +2106,10 @@
       <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="66">
         <v>6</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2180,10 +2180,10 @@
       <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="66">
         <v>7</v>
       </c>
-      <c r="E7" s="67"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="16" t="s">
         <v>28</v>
       </c>
@@ -2254,10 +2254,10 @@
       <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="66">
         <v>8</v>
       </c>
-      <c r="E8" s="67"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="16" t="s">
         <v>28</v>
       </c>
@@ -2328,10 +2328,10 @@
       <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="66">
         <v>9</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="16" t="s">
         <v>28</v>
       </c>
@@ -2402,10 +2402,10 @@
       <c r="C10" s="15">
         <v>6</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="66">
         <v>10</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="16" t="s">
         <v>28</v>
       </c>
@@ -2476,10 +2476,10 @@
       <c r="C11" s="15">
         <v>7</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="66">
         <v>11</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="16" t="s">
         <v>28</v>
       </c>
@@ -2550,10 +2550,10 @@
       <c r="C12" s="15">
         <v>8</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="66">
         <v>12</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="16" t="s">
         <v>28</v>
       </c>
@@ -2624,10 +2624,10 @@
       <c r="C13" s="15">
         <v>9</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="66">
         <v>13</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="16" t="s">
         <v>28</v>
       </c>
@@ -2698,10 +2698,10 @@
       <c r="C14" s="15">
         <v>10</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="66">
         <v>14</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2772,10 +2772,10 @@
       <c r="C15" s="15">
         <v>11</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="66">
         <v>15</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="16" t="s">
         <v>28</v>
       </c>
@@ -2846,10 +2846,10 @@
       <c r="C16" s="15">
         <v>12</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="66">
         <v>16</v>
       </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
@@ -2920,10 +2920,10 @@
       <c r="C17" s="15">
         <v>13</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>17</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="16" t="s">
         <v>28</v>
       </c>
@@ -2994,10 +2994,10 @@
       <c r="C18" s="15">
         <v>14</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>18</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="16" t="s">
         <v>28</v>
       </c>
@@ -3068,10 +3068,10 @@
       <c r="C19" s="15">
         <v>15</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="66">
         <v>19</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="16" t="s">
         <v>28</v>
       </c>
@@ -3142,10 +3142,10 @@
       <c r="C20" s="15">
         <v>16</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="66">
         <v>20</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="16" t="s">
         <v>28</v>
       </c>
@@ -3216,10 +3216,10 @@
       <c r="C21" s="15">
         <v>17</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="66">
         <v>21</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="16" t="s">
         <v>28</v>
       </c>
@@ -3290,10 +3290,10 @@
       <c r="C22" s="15">
         <v>18</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="66">
         <v>22</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="16" t="s">
         <v>28</v>
       </c>
@@ -3364,10 +3364,10 @@
       <c r="C23" s="15">
         <v>19</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="66">
         <v>23</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="16" t="s">
         <v>28</v>
       </c>
@@ -3438,10 +3438,10 @@
       <c r="C24" s="15">
         <v>20</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="66">
         <v>24</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="16" t="s">
         <v>28</v>
       </c>
@@ -3512,10 +3512,10 @@
       <c r="C25" s="15">
         <v>21</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="66">
         <v>25</v>
       </c>
-      <c r="E25" s="67"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3586,10 +3586,10 @@
       <c r="C26" s="15">
         <v>22</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="66">
         <v>26</v>
       </c>
-      <c r="E26" s="67"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3660,10 +3660,10 @@
       <c r="C27" s="15">
         <v>23</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="66">
         <v>27</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="16" t="s">
         <v>28</v>
       </c>
@@ -3734,10 +3734,10 @@
       <c r="C28" s="15">
         <v>24</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="66">
         <v>28</v>
       </c>
-      <c r="E28" s="67"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="16" t="s">
         <v>28</v>
       </c>
@@ -3808,10 +3808,10 @@
       <c r="C29" s="15">
         <v>25</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="66">
         <v>29</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="16" t="s">
         <v>28</v>
       </c>
@@ -3882,10 +3882,10 @@
       <c r="C30" s="15">
         <v>26</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="66">
         <v>30</v>
       </c>
-      <c r="E30" s="67"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="16" t="s">
         <v>28</v>
       </c>
@@ -3951,32 +3951,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -3987,6 +3961,32 @@
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:BM30">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -4072,70 +4072,70 @@
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="83" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="83" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="83" t="s">
+      <c r="M3" s="95"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="83" t="s">
+      <c r="Q3" s="95"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="98"/>
+      <c r="U3" s="82"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="86" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="86" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="86" t="s">
+      <c r="I4" s="89"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="86" t="s">
+      <c r="M4" s="93"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="86" t="s">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="99"/>
+      <c r="U4" s="96"/>
     </row>
     <row r="5" spans="2:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
@@ -4162,7 +4162,7 @@
       <c r="I5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="53" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -4174,7 +4174,7 @@
       <c r="M5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="N5" s="53" t="s">
         <v>56</v>
       </c>
       <c r="O5" s="22" t="s">
@@ -4186,7 +4186,7 @@
       <c r="Q5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="53" t="s">
         <v>56</v>
       </c>
       <c r="S5" s="22" t="s">
@@ -4200,191 +4200,191 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="70"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="105"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="97">
         <v>1</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="97" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="45"/>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
       <c r="J7" s="43"/>
       <c r="K7" s="46"/>
       <c r="L7" s="44"/>
-      <c r="M7" s="92"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="45"/>
       <c r="O7" s="47"/>
       <c r="P7" s="48"/>
-      <c r="Q7" s="95"/>
+      <c r="Q7" s="57"/>
       <c r="R7" s="49"/>
       <c r="S7" s="50"/>
       <c r="T7" s="51"/>
-      <c r="U7" s="100"/>
+      <c r="U7" s="60"/>
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="104"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="13"/>
       <c r="H8" s="25"/>
       <c r="I8" s="13"/>
       <c r="J8" s="23"/>
       <c r="K8" s="26"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="93"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="13"/>
       <c r="O8" s="31"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="96"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="17"/>
       <c r="S8" s="34"/>
       <c r="T8" s="38"/>
-      <c r="U8" s="101"/>
+      <c r="U8" s="61"/>
     </row>
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="104"/>
-      <c r="C9" s="76">
+      <c r="B9" s="84"/>
+      <c r="C9" s="97">
         <v>2</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="97" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="13"/>
       <c r="H9" s="25"/>
       <c r="I9" s="13"/>
       <c r="J9" s="23"/>
       <c r="K9" s="26"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="93"/>
+      <c r="M9" s="55"/>
       <c r="N9" s="13"/>
       <c r="O9" s="31"/>
       <c r="P9" s="33"/>
-      <c r="Q9" s="96"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="17"/>
       <c r="S9" s="34"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="101"/>
+      <c r="U9" s="61"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="104"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="13"/>
       <c r="H10" s="25"/>
       <c r="I10" s="13"/>
       <c r="J10" s="23"/>
       <c r="K10" s="26"/>
       <c r="L10" s="25"/>
-      <c r="M10" s="93"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="13"/>
       <c r="O10" s="31"/>
       <c r="P10" s="33"/>
-      <c r="Q10" s="96"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="17"/>
       <c r="S10" s="34"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="101"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
-      <c r="C11" s="76">
+      <c r="B11" s="84"/>
+      <c r="C11" s="97">
         <v>3</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="97" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="106"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="13"/>
       <c r="H11" s="25"/>
       <c r="I11" s="13"/>
       <c r="J11" s="23"/>
       <c r="K11" s="26"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="93"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="13"/>
       <c r="O11" s="31"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="96"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="17"/>
       <c r="S11" s="34"/>
       <c r="T11" s="38"/>
-      <c r="U11" s="101"/>
+      <c r="U11" s="61"/>
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="104"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="13"/>
       <c r="H12" s="25"/>
       <c r="I12" s="13"/>
       <c r="J12" s="23"/>
       <c r="K12" s="26"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="93"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="13"/>
       <c r="O12" s="31"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="96"/>
+      <c r="Q12" s="58"/>
       <c r="R12" s="17"/>
       <c r="S12" s="34"/>
       <c r="T12" s="38"/>
-      <c r="U12" s="101"/>
+      <c r="U12" s="61"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="104"/>
-      <c r="C13" s="76">
+      <c r="B13" s="84"/>
+      <c r="C13" s="97">
         <v>4</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="97" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -4397,46 +4397,46 @@
       <c r="J13" s="23"/>
       <c r="K13" s="26"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="93"/>
+      <c r="M13" s="55"/>
       <c r="N13" s="13"/>
       <c r="O13" s="31"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="96"/>
+      <c r="Q13" s="58"/>
       <c r="R13" s="17"/>
       <c r="S13" s="34"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="101"/>
+      <c r="U13" s="61"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="104"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="29" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="107"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="13"/>
       <c r="J14" s="23"/>
       <c r="K14" s="26"/>
       <c r="L14" s="25"/>
-      <c r="M14" s="93"/>
+      <c r="M14" s="55"/>
       <c r="N14" s="13"/>
       <c r="O14" s="31"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="96"/>
+      <c r="Q14" s="58"/>
       <c r="R14" s="17"/>
       <c r="S14" s="34"/>
       <c r="T14" s="38"/>
-      <c r="U14" s="101"/>
+      <c r="U14" s="61"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
-      <c r="C15" s="76">
+      <c r="B15" s="84"/>
+      <c r="C15" s="97">
         <v>5</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="97" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -4449,20 +4449,20 @@
       <c r="J15" s="23"/>
       <c r="K15" s="26"/>
       <c r="L15" s="25"/>
-      <c r="M15" s="93"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="33"/>
-      <c r="Q15" s="96"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="17"/>
       <c r="S15" s="34"/>
       <c r="T15" s="38"/>
-      <c r="U15" s="101"/>
+      <c r="U15" s="61"/>
     </row>
     <row r="16" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="104"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="29" t="s">
         <v>27</v>
       </c>
@@ -4473,22 +4473,22 @@
       <c r="J16" s="23"/>
       <c r="K16" s="26"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="93"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="33"/>
-      <c r="Q16" s="96"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="17"/>
       <c r="S16" s="34"/>
       <c r="T16" s="38"/>
-      <c r="U16" s="101"/>
+      <c r="U16" s="61"/>
     </row>
     <row r="17" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="76">
+      <c r="B17" s="84"/>
+      <c r="C17" s="97">
         <v>6</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="97" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -4501,20 +4501,20 @@
       <c r="J17" s="23"/>
       <c r="K17" s="26"/>
       <c r="L17" s="25"/>
-      <c r="M17" s="93"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="13"/>
       <c r="O17" s="31"/>
       <c r="P17" s="33"/>
-      <c r="Q17" s="96"/>
+      <c r="Q17" s="58"/>
       <c r="R17" s="17"/>
       <c r="S17" s="34"/>
       <c r="T17" s="38"/>
-      <c r="U17" s="101"/>
+      <c r="U17" s="61"/>
     </row>
     <row r="18" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="104"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="29" t="s">
         <v>27</v>
       </c>
@@ -4525,22 +4525,22 @@
       <c r="J18" s="23"/>
       <c r="K18" s="26"/>
       <c r="L18" s="25"/>
-      <c r="M18" s="93"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="13"/>
       <c r="O18" s="31"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="96"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="17"/>
       <c r="S18" s="34"/>
       <c r="T18" s="38"/>
-      <c r="U18" s="101"/>
+      <c r="U18" s="61"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
-      <c r="C19" s="76">
+      <c r="B19" s="84"/>
+      <c r="C19" s="97">
         <v>7</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="97" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -4553,20 +4553,20 @@
       <c r="J19" s="23"/>
       <c r="K19" s="26"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="93"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="13"/>
       <c r="O19" s="31"/>
       <c r="P19" s="33"/>
-      <c r="Q19" s="96"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="17"/>
       <c r="S19" s="34"/>
       <c r="T19" s="38"/>
-      <c r="U19" s="101"/>
+      <c r="U19" s="61"/>
     </row>
     <row r="20" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="105"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="29" t="s">
         <v>27</v>
       </c>
@@ -4577,24 +4577,24 @@
       <c r="J20" s="23"/>
       <c r="K20" s="26"/>
       <c r="L20" s="25"/>
-      <c r="M20" s="93"/>
+      <c r="M20" s="55"/>
       <c r="N20" s="13"/>
       <c r="O20" s="31"/>
       <c r="P20" s="33"/>
-      <c r="Q20" s="96"/>
+      <c r="Q20" s="58"/>
       <c r="R20" s="17"/>
       <c r="S20" s="34"/>
       <c r="T20" s="38"/>
-      <c r="U20" s="101"/>
+      <c r="U20" s="61"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="97">
         <v>8</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="97" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -4607,20 +4607,20 @@
       <c r="J21" s="23"/>
       <c r="K21" s="26"/>
       <c r="L21" s="25"/>
-      <c r="M21" s="93"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="13"/>
       <c r="O21" s="31"/>
       <c r="P21" s="33"/>
-      <c r="Q21" s="96"/>
+      <c r="Q21" s="58"/>
       <c r="R21" s="17"/>
       <c r="S21" s="34"/>
       <c r="T21" s="38"/>
-      <c r="U21" s="101"/>
+      <c r="U21" s="61"/>
     </row>
     <row r="22" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="104"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="29" t="s">
         <v>27</v>
       </c>
@@ -4631,22 +4631,22 @@
       <c r="J22" s="23"/>
       <c r="K22" s="26"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="93"/>
+      <c r="M22" s="55"/>
       <c r="N22" s="13"/>
       <c r="O22" s="31"/>
       <c r="P22" s="33"/>
-      <c r="Q22" s="96"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="17"/>
       <c r="S22" s="34"/>
       <c r="T22" s="38"/>
-      <c r="U22" s="101"/>
+      <c r="U22" s="61"/>
     </row>
     <row r="23" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="76">
+      <c r="B23" s="84"/>
+      <c r="C23" s="97">
         <v>9</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="97" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -4659,20 +4659,20 @@
       <c r="J23" s="23"/>
       <c r="K23" s="26"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="93"/>
+      <c r="M23" s="55"/>
       <c r="N23" s="13"/>
       <c r="O23" s="31"/>
       <c r="P23" s="33"/>
-      <c r="Q23" s="96"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="17"/>
       <c r="S23" s="34"/>
       <c r="T23" s="38"/>
-      <c r="U23" s="101"/>
+      <c r="U23" s="61"/>
     </row>
     <row r="24" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="104"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="29" t="s">
         <v>27</v>
       </c>
@@ -4683,22 +4683,22 @@
       <c r="J24" s="23"/>
       <c r="K24" s="26"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="93"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="13"/>
       <c r="O24" s="31"/>
       <c r="P24" s="33"/>
-      <c r="Q24" s="96"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="17"/>
       <c r="S24" s="34"/>
       <c r="T24" s="38"/>
-      <c r="U24" s="101"/>
+      <c r="U24" s="61"/>
     </row>
     <row r="25" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
-      <c r="C25" s="76">
+      <c r="B25" s="84"/>
+      <c r="C25" s="97">
         <v>10</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="97" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -4711,20 +4711,20 @@
       <c r="J25" s="23"/>
       <c r="K25" s="26"/>
       <c r="L25" s="25"/>
-      <c r="M25" s="93"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="13"/>
       <c r="O25" s="31"/>
       <c r="P25" s="33"/>
-      <c r="Q25" s="96"/>
+      <c r="Q25" s="58"/>
       <c r="R25" s="17"/>
       <c r="S25" s="34"/>
       <c r="T25" s="38"/>
-      <c r="U25" s="101"/>
+      <c r="U25" s="61"/>
     </row>
     <row r="26" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="105"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="29" t="s">
         <v>27</v>
       </c>
@@ -4735,24 +4735,24 @@
       <c r="J26" s="23"/>
       <c r="K26" s="26"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="93"/>
+      <c r="M26" s="55"/>
       <c r="N26" s="13"/>
       <c r="O26" s="31"/>
       <c r="P26" s="33"/>
-      <c r="Q26" s="96"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="17"/>
       <c r="S26" s="34"/>
       <c r="T26" s="38"/>
-      <c r="U26" s="101"/>
+      <c r="U26" s="61"/>
     </row>
     <row r="27" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="97">
         <v>11</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="97" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -4765,20 +4765,20 @@
       <c r="J27" s="23"/>
       <c r="K27" s="26"/>
       <c r="L27" s="25"/>
-      <c r="M27" s="93"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="13"/>
       <c r="O27" s="31"/>
       <c r="P27" s="33"/>
-      <c r="Q27" s="96"/>
+      <c r="Q27" s="58"/>
       <c r="R27" s="17"/>
       <c r="S27" s="34"/>
       <c r="T27" s="38"/>
-      <c r="U27" s="101"/>
+      <c r="U27" s="61"/>
     </row>
     <row r="28" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="29" t="s">
         <v>27</v>
       </c>
@@ -4789,24 +4789,24 @@
       <c r="J28" s="23"/>
       <c r="K28" s="26"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="93"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="13"/>
       <c r="O28" s="31"/>
       <c r="P28" s="33"/>
-      <c r="Q28" s="96"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="17"/>
       <c r="S28" s="34"/>
       <c r="T28" s="38"/>
-      <c r="U28" s="101"/>
+      <c r="U28" s="61"/>
     </row>
     <row r="29" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="97">
         <v>12</v>
       </c>
-      <c r="D29" s="76"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="24" t="s">
         <v>37</v>
       </c>
@@ -4817,20 +4817,20 @@
       <c r="J29" s="23"/>
       <c r="K29" s="26"/>
       <c r="L29" s="25"/>
-      <c r="M29" s="93"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="13"/>
       <c r="O29" s="31"/>
       <c r="P29" s="33"/>
-      <c r="Q29" s="96"/>
+      <c r="Q29" s="58"/>
       <c r="R29" s="17"/>
       <c r="S29" s="34"/>
       <c r="T29" s="38"/>
-      <c r="U29" s="101"/>
+      <c r="U29" s="61"/>
     </row>
     <row r="30" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="29" t="s">
         <v>27</v>
       </c>
@@ -4841,22 +4841,22 @@
       <c r="J30" s="23"/>
       <c r="K30" s="26"/>
       <c r="L30" s="25"/>
-      <c r="M30" s="93"/>
+      <c r="M30" s="55"/>
       <c r="N30" s="13"/>
       <c r="O30" s="31"/>
       <c r="P30" s="33"/>
-      <c r="Q30" s="96"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="17"/>
       <c r="S30" s="34"/>
       <c r="T30" s="38"/>
-      <c r="U30" s="101"/>
+      <c r="U30" s="61"/>
     </row>
     <row r="31" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="75"/>
-      <c r="C31" s="76">
+      <c r="B31" s="99"/>
+      <c r="C31" s="97">
         <v>13</v>
       </c>
-      <c r="D31" s="76"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="24" t="s">
         <v>37</v>
       </c>
@@ -4867,20 +4867,20 @@
       <c r="J31" s="23"/>
       <c r="K31" s="26"/>
       <c r="L31" s="25"/>
-      <c r="M31" s="93"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="13"/>
       <c r="O31" s="31"/>
       <c r="P31" s="33"/>
-      <c r="Q31" s="96"/>
+      <c r="Q31" s="58"/>
       <c r="R31" s="17"/>
       <c r="S31" s="34"/>
       <c r="T31" s="38"/>
-      <c r="U31" s="101"/>
+      <c r="U31" s="61"/>
     </row>
     <row r="32" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="29" t="s">
         <v>27</v>
       </c>
@@ -4891,55 +4891,87 @@
       <c r="J32" s="30"/>
       <c r="K32" s="29"/>
       <c r="L32" s="27"/>
-      <c r="M32" s="94"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="28"/>
       <c r="O32" s="32"/>
       <c r="P32" s="35"/>
-      <c r="Q32" s="97"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="36"/>
       <c r="S32" s="37"/>
       <c r="T32" s="39"/>
-      <c r="U32" s="102"/>
+      <c r="U32" s="62"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="13" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B21:B26"/>
@@ -4954,39 +4986,7 @@
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="B6:U6"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/zeitplanYatzy.xlsx
+++ b/doc/zeitplanYatzy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Yahtzi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067D520-7A31-436B-AD56-CC8138C81B10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639AA4D7-7B1D-47D0-AAF9-C825494FD3C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t>Activity 01</t>
   </si>
@@ -258,6 +258,39 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Frontend erstellen</t>
+  </si>
+  <si>
+    <t>Routing für alle Views</t>
+  </si>
+  <si>
+    <t>Entity Framework erstellen und in Datenbank einlesen</t>
+  </si>
+  <si>
+    <t>Funktionen für Client implementieren</t>
+  </si>
+  <si>
+    <t>Business Logic implementieren</t>
+  </si>
+  <si>
+    <t>Allfällige Restaufgaben fertigstellen</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Testprotokoll ausführen</t>
+  </si>
+  <si>
+    <t>Reflexion schreiben</t>
+  </si>
+  <si>
+    <t>Schlusswort verfassen</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -452,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -740,19 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -892,24 +912,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -919,7 +941,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -932,7 +969,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -943,10 +980,148 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1014,7 +1189,7 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,12 +1242,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1112,13 +1281,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,71 +1290,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,135 +1333,237 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="21" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" xfId="21" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="29" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="21" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1767,58 +2002,58 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:65" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="76"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="63"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="74" t="s">
+      <c r="T2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="78"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="65"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="2:65" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="72" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="59" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3"/>
@@ -1842,11 +2077,11 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="2:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="11">
         <v>2</v>
       </c>
@@ -2032,10 +2267,10 @@
       <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="68">
         <v>5</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
@@ -2106,10 +2341,10 @@
       <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>6</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2180,10 +2415,10 @@
       <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="68">
         <v>7</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="16" t="s">
         <v>28</v>
       </c>
@@ -2254,10 +2489,10 @@
       <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>8</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="16" t="s">
         <v>28</v>
       </c>
@@ -2328,10 +2563,10 @@
       <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="68">
         <v>9</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="16" t="s">
         <v>28</v>
       </c>
@@ -2402,10 +2637,10 @@
       <c r="C10" s="15">
         <v>6</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="68">
         <v>10</v>
       </c>
-      <c r="E10" s="66"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="16" t="s">
         <v>28</v>
       </c>
@@ -2476,10 +2711,10 @@
       <c r="C11" s="15">
         <v>7</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="68">
         <v>11</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="16" t="s">
         <v>28</v>
       </c>
@@ -2550,10 +2785,10 @@
       <c r="C12" s="15">
         <v>8</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="68">
         <v>12</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="16" t="s">
         <v>28</v>
       </c>
@@ -2624,10 +2859,10 @@
       <c r="C13" s="15">
         <v>9</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="68">
         <v>13</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="16" t="s">
         <v>28</v>
       </c>
@@ -2698,10 +2933,10 @@
       <c r="C14" s="15">
         <v>10</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="68">
         <v>14</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2772,10 +3007,10 @@
       <c r="C15" s="15">
         <v>11</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="68">
         <v>15</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="16" t="s">
         <v>28</v>
       </c>
@@ -2846,10 +3081,10 @@
       <c r="C16" s="15">
         <v>12</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="68">
         <v>16</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
@@ -2920,10 +3155,10 @@
       <c r="C17" s="15">
         <v>13</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="68">
         <v>17</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="16" t="s">
         <v>28</v>
       </c>
@@ -2994,10 +3229,10 @@
       <c r="C18" s="15">
         <v>14</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="68">
         <v>18</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="16" t="s">
         <v>28</v>
       </c>
@@ -3068,10 +3303,10 @@
       <c r="C19" s="15">
         <v>15</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="68">
         <v>19</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="16" t="s">
         <v>28</v>
       </c>
@@ -3142,10 +3377,10 @@
       <c r="C20" s="15">
         <v>16</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="68">
         <v>20</v>
       </c>
-      <c r="E20" s="66"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="16" t="s">
         <v>28</v>
       </c>
@@ -3216,10 +3451,10 @@
       <c r="C21" s="15">
         <v>17</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="68">
         <v>21</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="16" t="s">
         <v>28</v>
       </c>
@@ -3290,10 +3525,10 @@
       <c r="C22" s="15">
         <v>18</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="68">
         <v>22</v>
       </c>
-      <c r="E22" s="66"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="16" t="s">
         <v>28</v>
       </c>
@@ -3364,10 +3599,10 @@
       <c r="C23" s="15">
         <v>19</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="68">
         <v>23</v>
       </c>
-      <c r="E23" s="66"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="16" t="s">
         <v>28</v>
       </c>
@@ -3438,10 +3673,10 @@
       <c r="C24" s="15">
         <v>20</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="68">
         <v>24</v>
       </c>
-      <c r="E24" s="66"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="16" t="s">
         <v>28</v>
       </c>
@@ -3512,10 +3747,10 @@
       <c r="C25" s="15">
         <v>21</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="68">
         <v>25</v>
       </c>
-      <c r="E25" s="66"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="16" t="s">
         <v>28</v>
       </c>
@@ -3586,10 +3821,10 @@
       <c r="C26" s="15">
         <v>22</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="68">
         <v>26</v>
       </c>
-      <c r="E26" s="66"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3660,10 +3895,10 @@
       <c r="C27" s="15">
         <v>23</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="68">
         <v>27</v>
       </c>
-      <c r="E27" s="66"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="16" t="s">
         <v>28</v>
       </c>
@@ -3734,10 +3969,10 @@
       <c r="C28" s="15">
         <v>24</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="68">
         <v>28</v>
       </c>
-      <c r="E28" s="66"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="16" t="s">
         <v>28</v>
       </c>
@@ -3808,10 +4043,10 @@
       <c r="C29" s="15">
         <v>25</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="68">
         <v>29</v>
       </c>
-      <c r="E29" s="66"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="16" t="s">
         <v>28</v>
       </c>
@@ -3882,10 +4117,10 @@
       <c r="C30" s="15">
         <v>26</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="68">
         <v>30</v>
       </c>
-      <c r="E30" s="66"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="16" t="s">
         <v>28</v>
       </c>
@@ -3951,6 +4186,32 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -3961,32 +4222,6 @@
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:BM30">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -4054,15 +4289,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642E310D-AE39-45A6-96C4-D01CF450F527}">
-  <dimension ref="B2:U39"/>
+  <dimension ref="B2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
     <col min="4" max="4" width="48.375" customWidth="1"/>
     <col min="6" max="7" width="4.625" customWidth="1"/>
@@ -4072,906 +4307,1372 @@
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="81" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="81" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="81" t="s">
+      <c r="M3" s="83"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="81" t="s">
+      <c r="Q3" s="83"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="82"/>
+      <c r="U3" s="73"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91" t="s">
+      <c r="M4" s="81"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="91" t="s">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="96"/>
+      <c r="U4" s="84"/>
     </row>
     <row r="5" spans="2:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="105"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="86"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="89">
         <v>1</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="60"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="125"/>
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="52" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="65"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="55"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="58"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="61"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="48"/>
     </row>
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
-      <c r="C9" s="97">
+      <c r="B9" s="92"/>
+      <c r="C9" s="89">
         <v>2</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="58"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="61"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="48"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="84"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="29" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="55"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="58"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="61"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="48"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="84"/>
-      <c r="C11" s="97">
+      <c r="B11" s="92"/>
+      <c r="C11" s="89">
         <v>3</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="58"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="61"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="48"/>
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="29" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="55"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="58"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="61"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="48"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
-      <c r="C13" s="97">
+      <c r="B13" s="92"/>
+      <c r="C13" s="89">
         <v>4</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="58"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="61"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="48"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="29" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="64"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="55"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="58"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="61"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="48"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
-      <c r="C15" s="97">
+      <c r="B15" s="92"/>
+      <c r="C15" s="89">
         <v>5</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="58"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="61"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="48"/>
     </row>
     <row r="16" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="84"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="29" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="55"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="58"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="61"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="48"/>
     </row>
     <row r="17" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="84"/>
-      <c r="C17" s="97">
+      <c r="B17" s="92"/>
+      <c r="C17" s="89">
         <v>6</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="55"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="58"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="61"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="48"/>
     </row>
     <row r="18" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="84"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="29" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="55"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="58"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="17"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="61"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="48"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="84"/>
-      <c r="C19" s="97">
+      <c r="B19" s="92"/>
+      <c r="C19" s="89">
         <v>7</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="55"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="58"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="17"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="61"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="48"/>
     </row>
     <row r="20" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="85"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="29" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="55"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="58"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="17"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="61"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="48"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="89">
         <v>8</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="55"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="58"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="61"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="48"/>
     </row>
     <row r="22" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="84"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="29" t="s">
+      <c r="B22" s="92"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="55"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="58"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="17"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="61"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="48"/>
     </row>
     <row r="23" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="84"/>
-      <c r="C23" s="97">
+      <c r="B23" s="92"/>
+      <c r="C23" s="89">
         <v>9</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="55"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="58"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="61"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="48"/>
     </row>
     <row r="24" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="84"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="29" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="55"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="58"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="61"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="48"/>
     </row>
     <row r="25" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="84"/>
-      <c r="C25" s="97">
+      <c r="B25" s="92"/>
+      <c r="C25" s="89">
         <v>10</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="55"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="58"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="61"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="48"/>
     </row>
     <row r="26" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="85"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="29" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="55"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="58"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="61"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="48"/>
     </row>
     <row r="27" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="89">
         <v>11</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="55"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="58"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="61"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="48"/>
     </row>
     <row r="28" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="100"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="29" t="s">
+      <c r="B28" s="96"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="58"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
       <c r="R28" s="17"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="61"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="48"/>
     </row>
     <row r="29" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="97">
+      <c r="C29" s="89">
         <v>12</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="58"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="17"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="61"/>
-    </row>
-    <row r="30" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="100"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="29" t="s">
+      <c r="S29" s="31"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="48"/>
+    </row>
+    <row r="30" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="92"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="58"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="61"/>
-    </row>
-    <row r="31" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
-      <c r="C31" s="97">
+      <c r="S30" s="31"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="48"/>
+    </row>
+    <row r="31" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="92"/>
+      <c r="C31" s="89">
         <v>13</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="24" t="s">
+      <c r="D31" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="55"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="43"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="58"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
       <c r="R31" s="17"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="61"/>
-    </row>
-    <row r="32" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="100"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="29" t="s">
+      <c r="S31" s="31"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="48"/>
+    </row>
+    <row r="32" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="92"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="62"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="106" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="48"/>
+    </row>
+    <row r="33" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="92"/>
+      <c r="C33" s="89">
+        <v>14</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="48"/>
+    </row>
+    <row r="34" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="92"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="48"/>
+    </row>
+    <row r="35" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="92"/>
+      <c r="C35" s="89">
+        <v>15</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="48"/>
+    </row>
+    <row r="36" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="92"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="48"/>
+    </row>
+    <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="92"/>
+      <c r="C37" s="89">
+        <v>16</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="48"/>
+    </row>
+    <row r="38" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="92"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="48"/>
+    </row>
+    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="92"/>
+      <c r="C39" s="89">
+        <v>17</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="48"/>
+    </row>
+    <row r="40" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="93"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="48"/>
+    </row>
+    <row r="41" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="89">
+        <v>18</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="48"/>
+    </row>
+    <row r="42" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="93"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="48"/>
+    </row>
+    <row r="43" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="89">
+        <v>18</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="121"/>
+    </row>
+    <row r="44" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="92"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="120"/>
+    </row>
+    <row r="45" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="92"/>
+      <c r="C45" s="89">
+        <v>18</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="121"/>
+    </row>
+    <row r="46" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="93"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="126"/>
+    </row>
+    <row r="47" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="113"/>
+      <c r="U47" s="113"/>
+    </row>
+    <row r="48" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="106" t="s">
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+    </row>
+    <row r="49" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="13" t="s">
+      <c r="C49" s="107"/>
+      <c r="D49" s="108" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="13" t="s">
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="113"/>
+      <c r="T49" s="113"/>
+      <c r="U49" s="113"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="104"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="13" t="s">
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="113"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="113"/>
+      <c r="Q50" s="113"/>
+      <c r="R50" s="113"/>
+      <c r="S50" s="113"/>
+      <c r="T50" s="113"/>
+      <c r="U50" s="113"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="97"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="102" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="13" t="s">
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
+    </row>
+    <row r="52" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="98"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="103" t="s">
         <v>48</v>
       </c>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="113"/>
+      <c r="U52" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D15:D16"/>
+  <mergeCells count="65">
+    <mergeCell ref="E47:U52"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="B21:B26"/>
@@ -4988,6 +5689,36 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B6:U6"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
